--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Donald的檔案\中興工程\Autodesk費用\Autodesk費用統整\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DE608-0B3F-4AAF-8E41-460D941740BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
   <si>
     <t>年月</t>
   </si>
@@ -178,59 +177,345 @@
     <t>請選擇姓名 ▼</t>
   </si>
   <si>
+    <t>0287B</t>
+  </si>
+  <si>
+    <t>手       填</t>
+  </si>
+  <si>
+    <t>比       例 ▼</t>
+  </si>
+  <si>
+    <t>黃文俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局桃園鐵路地下化北段細設</t>
+  </si>
+  <si>
+    <t>新北捷民生汐止線臺北市段綜規都市計畫變更</t>
+  </si>
+  <si>
+    <t>新北市淡海輕軌運輸系統總顧問</t>
+  </si>
+  <si>
+    <t>新北市安坑輕軌運輸系統專管</t>
+  </si>
+  <si>
+    <t>新北市汐東捷運基設及專管</t>
+  </si>
+  <si>
+    <t>北捷局捷運萬大線DQ124標細設</t>
+  </si>
+  <si>
+    <t>9510Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳育甄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5099Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃世璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+  </si>
+  <si>
+    <t>繪圖</t>
+  </si>
+  <si>
+    <t>硬體</t>
+  </si>
+  <si>
+    <t>軟體</t>
+  </si>
+  <si>
+    <t>使用者總計</t>
+  </si>
+  <si>
+    <t>計畫編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸屬部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月租/時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品/其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0244B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱書賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭哲翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱美麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建構備標通用資料庫-設計類標案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運造價與碳排估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠揚航空城區徵D1統包之細設(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉鳴錚</t>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0406B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC03標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0687B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳滄江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0763B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0775B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局-23捷運延伸總顧問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張宏泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局前瞻計畫機捷A14站專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1295P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南科新設園區新建建築工程專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4520N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0287B</t>
-  </si>
-  <si>
-    <t>手       填</t>
-  </si>
-  <si>
-    <t>比       例 ▼</t>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6273C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局中捷烏日文心線DJ103標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣生活圈道路建設細部設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ126設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大二期126標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市泰山板橋輕軌周邊土開可研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷環狀線東環段設計暨測量地調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黃文俊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0344B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0376B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳平天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0404B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永青航空城區徵D3統包之細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北環狀線運量檢討及優化轉乘服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>詹仁安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市泰山板橋輕軌周邊土開可研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷環狀線東環段設計暨測量地調</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局桃園鐵路地下化北段細設</t>
-  </si>
-  <si>
-    <t>新北環狀線運量檢討及優化轉乘服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北捷民生汐止線臺北市段綜規都市計畫變更</t>
+    <t>0632B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0661B</t>
@@ -241,7 +526,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0687B</t>
+    <t>0682B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,7 +534,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
+    <t>0732B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市敦化北路地下貯留設施規劃設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岳洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0747B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC02標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王禮賀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷民汐捷運土建基設及調查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,24 +570,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鐵道局-23捷運延伸總顧問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市淡海輕軌運輸系統總顧問</t>
-  </si>
-  <si>
-    <t>新北市安坑輕軌運輸系統專管</t>
-  </si>
-  <si>
-    <t>鐵道局前瞻計畫機捷A14站專管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市汐東捷運基設及專管</t>
-  </si>
-  <si>
-    <t>1313P</t>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇啟鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳滄江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳潔如</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,11 +598,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4548N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局光復中和線可行性研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5080Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水設計自動化(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝文凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5092Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6273C</t>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5093Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防撒水自動化設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張進平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李臺生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,327 +654,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北捷局捷運萬大線DQ124標細設</t>
+    <t>汪安邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷R11永久車站設計顧問服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳柏愷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7461C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清水雅加達CP202第三方認證</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9510Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部門行政(光碟/鍵盤/滑鼠/OFFICE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>計畫主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳育甄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇政龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫簡稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝文凱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張宏泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王禮賀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇啟鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莊志維</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張進平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳柏愷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0344B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0406B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5099Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃世璋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>員編</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-  </si>
-  <si>
-    <t>繪圖</t>
-  </si>
-  <si>
-    <t>硬體</t>
-  </si>
-  <si>
-    <t>軟體</t>
-  </si>
-  <si>
-    <t>使用者總計</t>
-  </si>
-  <si>
-    <t>計畫編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸屬部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月租/時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網路維護</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品/其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ126設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0244B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱書賢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0376B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳平天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永青航空城區徵D3統包之細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周汶叡</t>
+    <t>王鈴聲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陳立</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0682B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC03標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳滄江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0732B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市敦化北路地下貯留設施規劃設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李岳洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0747B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC02標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0775B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭哲翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾慶星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱美麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5080Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排水設計自動化(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建構備標通用資料庫-設計類標案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5093Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷運造價與碳排估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防撒水自動化設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局中捷烏日文心線DJ103標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李臺生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪安邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷R11永久車站設計顧問服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0632B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0763B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷民汐捷運土建基設及調查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大二期126標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">王鈴聲 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0404B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠揚航空城區徵D1統包之細設(22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉鳴錚</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1077,8 +1148,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1098,33 +1169,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D2" s="7">
         <v>4125</v>
@@ -1138,13 +1209,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7">
         <v>3398</v>
@@ -1158,13 +1229,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
         <v>3398</v>
@@ -1178,19 +1249,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
         <v>4839</v>
       </c>
       <c r="E5" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1201,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7">
         <v>5139</v>
@@ -1218,13 +1289,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
         <v>3884</v>
@@ -1238,19 +1309,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
         <v>5085</v>
       </c>
       <c r="E8" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1258,13 +1329,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
         <v>4751</v>
@@ -1278,13 +1349,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7">
         <v>4518</v>
@@ -1298,13 +1369,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7">
         <v>4708</v>
@@ -1318,13 +1389,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D12" s="7">
         <v>4728</v>
@@ -1341,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
         <v>7383</v>
@@ -1361,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
         <v>3884</v>
@@ -1381,10 +1452,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="D15" s="7">
         <v>4867</v>
@@ -1398,13 +1469,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="D16" s="7">
         <v>6877</v>
@@ -1418,13 +1489,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
         <v>6877</v>
@@ -1438,13 +1509,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
         <v>5085</v>
@@ -1458,13 +1529,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7">
         <v>5180</v>
@@ -1478,13 +1549,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D20" s="7">
         <v>5973</v>
@@ -1498,13 +1569,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
         <v>4313</v>
@@ -1518,19 +1589,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D22" s="7">
-        <v>7456</v>
+        <v>4143</v>
       </c>
       <c r="E22" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -1538,19 +1609,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7">
-        <v>4143</v>
+        <v>7456</v>
       </c>
       <c r="E23" s="7">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -1558,13 +1629,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7">
         <v>3483</v>
@@ -1581,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7">
         <v>4867</v>
@@ -1601,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7">
         <v>5386</v>
@@ -1621,10 +1692,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D27" s="7">
         <v>4838</v>
@@ -1641,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="D28" s="7">
         <v>4867</v>
@@ -1661,10 +1732,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D29" s="7">
         <v>5180</v>
@@ -1677,37 +1748,37 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4821</v>
-      </c>
-      <c r="E30" s="7">
-        <v>24</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="A30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5050</v>
+      </c>
+      <c r="E30" s="6">
+        <v>92</v>
+      </c>
+      <c r="F30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D31" s="7">
-        <v>4082</v>
+        <v>4821</v>
       </c>
       <c r="E31" s="7">
         <v>24</v>
@@ -1718,16 +1789,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7">
-        <v>5091</v>
+        <v>4082</v>
       </c>
       <c r="E32" s="7">
         <v>24</v>
@@ -1737,37 +1808,37 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="7">
-        <v>4125</v>
-      </c>
-      <c r="E33" s="7">
-        <v>24</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="A33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5835</v>
+      </c>
+      <c r="E33" s="6">
+        <v>24</v>
+      </c>
+      <c r="F33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D34" s="7">
-        <v>4082</v>
+        <v>5091</v>
       </c>
       <c r="E34" s="7">
         <v>24</v>
@@ -1778,19 +1849,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D35" s="7">
-        <v>4948</v>
+        <v>4125</v>
       </c>
       <c r="E35" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
@@ -1798,16 +1869,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D36" s="7">
-        <v>4143</v>
+        <v>4082</v>
       </c>
       <c r="E36" s="7">
         <v>24</v>
@@ -1818,19 +1889,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D37" s="7">
-        <v>4320</v>
+        <v>4948</v>
       </c>
       <c r="E37" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -1838,16 +1909,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D38" s="7">
-        <v>6877</v>
+        <v>4143</v>
       </c>
       <c r="E38" s="7">
         <v>24</v>
@@ -1858,16 +1929,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D39" s="7">
-        <v>5526</v>
+        <v>4320</v>
       </c>
       <c r="E39" s="7">
         <v>24</v>
@@ -1878,16 +1949,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D40" s="7">
-        <v>4867</v>
+        <v>6877</v>
       </c>
       <c r="E40" s="7">
         <v>24</v>
@@ -1898,21 +1969,81 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="D41" s="7">
+        <v>5526</v>
+      </c>
+      <c r="E41" s="7">
+        <v>24</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3483</v>
+      </c>
+      <c r="E42" s="6">
+        <v>92</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E43" s="7">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="7">
         <v>4125</v>
       </c>
-      <c r="E41" s="7">
-        <v>24</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="E44" s="7">
+        <v>24</v>
+      </c>
+      <c r="F44" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1963,14 +2094,14 @@
     <protectedRange sqref="C11:D11" name="二部主管範圍_1"/>
     <protectedRange sqref="A11:B11" name="二部計畫範圍_3"/>
   </protectedRanges>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1993,44 +2124,44 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2038,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2084,7 +2215,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2092,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,14 +2278,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2211,14 +2342,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2273,14 +2404,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2335,14 +2466,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2397,14 +2528,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2454,32 +2585,32 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="B2:I2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Donald的檔案\中興工程\Autodesk費用\Autodesk費用統整\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\Autodesk費用統整\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>年月</t>
   </si>
@@ -190,503 +190,519 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局桃園鐵路地下化北段細設</t>
+  </si>
+  <si>
+    <t>新北捷民生汐止線臺北市段綜規都市計畫變更</t>
+  </si>
+  <si>
+    <t>新北市淡海輕軌運輸系統總顧問</t>
+  </si>
+  <si>
+    <t>新北市安坑輕軌運輸系統專管</t>
+  </si>
+  <si>
+    <t>新北市汐東捷運基設及專管</t>
+  </si>
+  <si>
+    <t>北捷局捷運萬大線DQ124標細設</t>
+  </si>
+  <si>
+    <t>計畫主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳育甄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5099Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃世璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+  </si>
+  <si>
+    <t>繪圖</t>
+  </si>
+  <si>
+    <t>硬體</t>
+  </si>
+  <si>
+    <t>軟體</t>
+  </si>
+  <si>
+    <t>使用者總計</t>
+  </si>
+  <si>
+    <t>計畫編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸屬部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月租/時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品/其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0244B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭哲翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉鳴錚</t>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳滄江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局-23捷運延伸總顧問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1295P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南科新設園區新建建築工程專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6273C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大二期126標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0376B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永青航空城區徵D3統包之細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北環狀線運量檢討及優化轉乘服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0632B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新北捷局基隆捷運基本設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0747B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC02標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0777B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5080Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝文凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷R11永久車站設計顧問服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳柏愷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水雅加達CP202第三方認證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ126設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鈴聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市泰山板橋輕軌周邊土開可研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷環狀線東環段設計暨測量地調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃文俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱書賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0344B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳平天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0404B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠揚航空城區徵D1統包之細設(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0406B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>詹仁安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局桃園鐵路地下化北段細設</t>
-  </si>
-  <si>
-    <t>新北捷民生汐止線臺北市段綜規都市計畫變更</t>
-  </si>
-  <si>
-    <t>新北市淡海輕軌運輸系統總顧問</t>
-  </si>
-  <si>
-    <t>新北市安坑輕軌運輸系統專管</t>
-  </si>
-  <si>
-    <t>新北市汐東捷運基設及專管</t>
-  </si>
-  <si>
-    <t>北捷局捷運萬大線DQ124標細設</t>
+    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0661B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷黃線YC01標統包Y1~Y4站細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0682B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC03標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱書賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0687B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0732B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市敦化北路地下貯留設施規劃設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岳洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王禮賀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0763B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷民汐捷運土建基設及調查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0775B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷黃線YD01標土建及設施機電細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張宏泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇啟鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局前瞻計畫機捷A14站專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳潔如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局基隆捷運(南港至八堵)招標作業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱美麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4520N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中捷藍線建設計畫BD03標細設監造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4548N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局光復中和線可行性研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水設計自動化(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5092Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建構備標通用資料庫-設計類標案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5093Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運造價與碳排估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防撒水自動化設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張進平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5103Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinoStation2025與BIM平台擴充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局中捷烏日文心線DJ103標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李臺生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局捷運萬大線DQ122細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪安邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳柏愷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7461C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣生活圈道路建設細部設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9510Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>計畫主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳育甄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫簡稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5099Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃世璋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>員編</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-  </si>
-  <si>
-    <t>繪圖</t>
-  </si>
-  <si>
-    <t>硬體</t>
-  </si>
-  <si>
-    <t>軟體</t>
-  </si>
-  <si>
-    <t>使用者總計</t>
-  </si>
-  <si>
-    <t>計畫編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸屬部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月租/時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網路維護</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品/其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0244B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱書賢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周汶叡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭哲翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱美麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建構備標通用資料庫-設計類標案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷運造價與碳排估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠揚航空城區徵D1統包之細設(22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉鳴錚</t>
-  </si>
-  <si>
-    <t>蘇政龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0406B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC03標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0687B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳滄江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0763B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0775B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局-23捷運延伸總顧問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張宏泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局前瞻計畫機捷A14站專管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1295P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南科新設園區新建建築工程專管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1313P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4520N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莊志維</t>
+    <t>部門行政(光碟/鍵盤/滑鼠/OFFICE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6273C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局中捷烏日文心線DJ103標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東縣生活圈道路建設細部設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇政龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ126設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大二期126標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市泰山板橋輕軌周邊土開可研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷環狀線東環段設計暨測量地調</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃文俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0344B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0376B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳平天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0404B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永青航空城區徵D3統包之細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北環狀線運量檢討及優化轉乘服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周汶叡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹仁安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0632B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0661B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷黃線YC01標統包Y1~Y4站細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0682B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新北捷局基隆捷運基本設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0732B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市敦化北路地下貯留設施規劃設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李岳洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0747B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC02標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王禮賀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷民汐捷運土建基設及調查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0777B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷黃線YD01標土建及設施機電細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾慶星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇啟鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹仁安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳滄江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳潔如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北捷局基隆捷運(南港至八堵)招標作業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中捷藍線建設計畫BD03標細設監造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4548N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北捷局光復中和線可行性研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李安爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5080Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排水設計自動化(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝文凱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5092Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5093Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莊志維</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防撒水自動化設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張進平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李臺生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局捷運萬大線DQ122細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪安邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷R11永久車站設計顧問服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳柏愷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7461C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾慶星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清水雅加達CP202第三方認證</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門行政(光碟/鍵盤/滑鼠/OFFICE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鈴聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1169,33 +1185,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="D2" s="7">
         <v>4125</v>
@@ -1209,13 +1225,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="7">
         <v>3398</v>
@@ -1229,13 +1245,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
         <v>3398</v>
@@ -1249,13 +1265,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D5" s="7">
         <v>4839</v>
@@ -1275,7 +1291,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7">
         <v>5139</v>
@@ -1289,7 +1305,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>117</v>
@@ -1312,10 +1328,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
         <v>5085</v>
@@ -1329,13 +1345,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7">
         <v>4751</v>
@@ -1349,13 +1365,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D10" s="7">
         <v>4518</v>
@@ -1369,13 +1385,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7">
         <v>4708</v>
@@ -1389,13 +1405,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="D12" s="7">
         <v>4728</v>
@@ -1412,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7">
         <v>7383</v>
@@ -1432,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>47</v>
@@ -1452,10 +1468,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
         <v>4867</v>
@@ -1469,13 +1485,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D16" s="7">
         <v>6877</v>
@@ -1489,13 +1505,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7">
         <v>6877</v>
@@ -1509,13 +1525,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D18" s="7">
         <v>5085</v>
@@ -1529,13 +1545,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
         <v>5180</v>
@@ -1569,13 +1585,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D21" s="7">
         <v>4313</v>
@@ -1589,16 +1605,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" s="7">
-        <v>4143</v>
+        <v>7383</v>
       </c>
       <c r="E22" s="7">
         <v>24</v>
@@ -1609,13 +1625,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
         <v>7456</v>
@@ -1629,7 +1645,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>145</v>
@@ -1652,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="D25" s="7">
         <v>4867</v>
@@ -1672,10 +1688,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D26" s="7">
         <v>5386</v>
@@ -1692,10 +1708,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" s="7">
         <v>4838</v>
@@ -1712,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D28" s="7">
         <v>4867</v>
@@ -1732,10 +1748,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7">
         <v>5180</v>
@@ -1749,13 +1765,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D30" s="6">
         <v>5050</v>
@@ -1769,13 +1785,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="D31" s="7">
         <v>4821</v>
@@ -1789,13 +1805,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D32" s="7">
         <v>4082</v>
@@ -1809,13 +1825,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="D33" s="6">
         <v>5835</v>
@@ -1829,13 +1845,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D34" s="7">
         <v>5091</v>
@@ -1849,13 +1865,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D35" s="7">
         <v>4125</v>
@@ -1869,13 +1885,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="D36" s="7">
         <v>4082</v>
@@ -1889,13 +1905,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D37" s="7">
         <v>4948</v>
@@ -1909,16 +1925,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="D38" s="7">
-        <v>4143</v>
+        <v>5526</v>
       </c>
       <c r="E38" s="7">
         <v>24</v>
@@ -1929,16 +1945,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D39" s="7">
-        <v>4320</v>
+        <v>4143</v>
       </c>
       <c r="E39" s="7">
         <v>24</v>
@@ -1949,16 +1965,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="D40" s="7">
-        <v>6877</v>
+        <v>4320</v>
       </c>
       <c r="E40" s="7">
         <v>24</v>
@@ -1969,130 +1985,150 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6877</v>
+      </c>
+      <c r="E41" s="7">
+        <v>24</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="B42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="7">
         <v>5526</v>
       </c>
-      <c r="E41" s="7">
-        <v>24</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="E42" s="7">
+        <v>24</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="6">
         <v>3483</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>92</v>
       </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="7">
-        <v>4867</v>
-      </c>
-      <c r="E43" s="7">
-        <v>24</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D44" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E44" s="7">
+        <v>24</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="7">
         <v>4125</v>
       </c>
-      <c r="E44" s="7">
-        <v>24</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E45" s="7">
+        <v>24</v>
+      </c>
+      <c r="F45" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 E7:F41 A17:B22 A24:B41 A6:B10 A12:B15" name="二部計畫範圍_1_1_1_1"/>
-    <protectedRange sqref="C6:E6" name="二部主管範圍_2_1_1_1_1"/>
-    <protectedRange sqref="C4:E4 E5" name="二部主管範圍_3_1_1_1_1"/>
-    <protectedRange sqref="C8:D8" name="二部主管範圍_4_1_1_1_1"/>
-    <protectedRange sqref="C7:D7" name="二部主管範圍_5_1_1_1_1"/>
-    <protectedRange sqref="C3:D3" name="二部主管範圍_6_1_1_1_1"/>
-    <protectedRange sqref="C10:D10" name="二部主管範圍_7_1_1_1_1"/>
-    <protectedRange sqref="C12:D12" name="二部主管範圍_8_1_1_1_1"/>
-    <protectedRange sqref="C9:D9" name="二部主管範圍_9_1_1_1_1"/>
-    <protectedRange sqref="C13:D13" name="二部主管範圍_10_1_1_1_1"/>
-    <protectedRange sqref="C14:D14" name="二部主管範圍_11_1_1_1_1"/>
-    <protectedRange sqref="C15:D15" name="二部主管範圍_12_1_1_1_1"/>
-    <protectedRange sqref="C17:D17" name="二部主管範圍_13_1_1_1_1"/>
-    <protectedRange sqref="C18:D18" name="二部主管範圍_14_1_1_1_1"/>
-    <protectedRange sqref="C32:D32" name="二部主管範圍_15_1_1_1_1"/>
-    <protectedRange sqref="C19:D19" name="二部主管範圍_16_1_1_1_1"/>
-    <protectedRange sqref="C26:D26" name="二部主管範圍_17_1_1_1_1"/>
-    <protectedRange sqref="C20:D20" name="二部主管範圍_18_1_1_1_1"/>
-    <protectedRange sqref="C21:D21" name="二部主管範圍_19_1_1_1_1"/>
-    <protectedRange sqref="C22:D22" name="二部主管範圍_20_1_1_1_1"/>
-    <protectedRange sqref="C24:D24" name="二部主管範圍_21_1_1_1_1"/>
-    <protectedRange sqref="C25:D25" name="二部主管範圍_22_1_1_1_1"/>
-    <protectedRange sqref="C27:D27" name="二部主管範圍_23_1_1_1_1"/>
-    <protectedRange sqref="C28:D28" name="二部主管範圍_24_1_1_1_1"/>
-    <protectedRange sqref="C31:D31" name="二部主管範圍_25_1_1_1_1"/>
-    <protectedRange sqref="C29:D29" name="二部主管範圍_26_1_1_1_1"/>
-    <protectedRange sqref="C36:D36" name="二部主管範圍_27_1_1_1_1"/>
-    <protectedRange sqref="C37:D37" name="二部主管範圍_28_1_1_1_1"/>
-    <protectedRange sqref="C33:D33" name="二部主管範圍_29_1_1_1_1"/>
-    <protectedRange sqref="C34:D34" name="二部主管範圍_30_1_1_1_1"/>
-    <protectedRange sqref="C35:D35" name="二部主管範圍_31_1_1_1_1"/>
-    <protectedRange sqref="C38:D38" name="二部主管範圍_32_1_1_1_1"/>
-    <protectedRange sqref="C39:D39" name="二部主管範圍_33_1_1_1_1"/>
-    <protectedRange sqref="C30:D30" name="二部主管範圍_34_1_1_1_1"/>
-    <protectedRange sqref="C40:D40" name="二部主管範圍_35_1_1_1_1"/>
-    <protectedRange sqref="C41:D41" name="二部主管範圍_36_1_1_1_1"/>
-    <protectedRange sqref="A16:B16" name="二部計畫範圍_2_1"/>
-    <protectedRange sqref="A23:B23" name="二部計畫範圍_4_1_1"/>
-    <protectedRange sqref="C23:D23" name="二部主管範圍_2_1"/>
-    <protectedRange sqref="C16:D16" name="二部主管範圍_1_2_1"/>
-    <protectedRange sqref="A5:B5" name="二部計畫範圍"/>
-    <protectedRange sqref="C5:D5" name="二部主管範圍"/>
-    <protectedRange sqref="C11:D11" name="二部主管範圍_1"/>
-    <protectedRange sqref="A11:B11" name="二部計畫範圍_3"/>
+    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A17:B22 A6:B10 A12:B15 E7:F42 A24:B42" name="二部計畫範圍_1_1_1_1_1"/>
+    <protectedRange sqref="C6:E6" name="二部主管範圍_2_1_1_1_1_1"/>
+    <protectedRange sqref="C4:E4 E5" name="二部主管範圍_3_1_1_1_1_1"/>
+    <protectedRange sqref="C8:D8" name="二部主管範圍_4_1_1_1_1_1"/>
+    <protectedRange sqref="C7:D7" name="二部主管範圍_5_1_1_1_1_1"/>
+    <protectedRange sqref="C3:D3" name="二部主管範圍_6_1_1_1_1_1"/>
+    <protectedRange sqref="C10:D10" name="二部主管範圍_7_1_1_1_1_1"/>
+    <protectedRange sqref="C12:D12" name="二部主管範圍_8_1_1_1_1_1"/>
+    <protectedRange sqref="C9:D9" name="二部主管範圍_9_1_1_1_1_1"/>
+    <protectedRange sqref="C13:D13" name="二部主管範圍_10_1_1_1_1_1"/>
+    <protectedRange sqref="C14:D14" name="二部主管範圍_11_1_1_1_1_1"/>
+    <protectedRange sqref="C15:D15" name="二部主管範圍_12_1_1_1_1_1"/>
+    <protectedRange sqref="C17:D17" name="二部主管範圍_13_1_1_1_1_1"/>
+    <protectedRange sqref="C18:D18" name="二部主管範圍_14_1_1_1_1_1"/>
+    <protectedRange sqref="C32:D32" name="二部主管範圍_15_1_1_1_1_1"/>
+    <protectedRange sqref="C19:D19" name="二部主管範圍_16_1_1_1_1_1"/>
+    <protectedRange sqref="C26:D26" name="二部主管範圍_17_1_1_1_1_1"/>
+    <protectedRange sqref="C20:D20" name="二部主管範圍_18_1_1_1_1_1"/>
+    <protectedRange sqref="C21:D21" name="二部主管範圍_19_1_1_1_1_1"/>
+    <protectedRange sqref="C22:D22" name="二部主管範圍_20_1_1_1_1_1"/>
+    <protectedRange sqref="C24:D24" name="二部主管範圍_21_1_1_1_1_1"/>
+    <protectedRange sqref="C25:D25" name="二部主管範圍_22_1_1_1_1_1"/>
+    <protectedRange sqref="C27:D27" name="二部主管範圍_23_1_1_1_1_1"/>
+    <protectedRange sqref="C28:D28" name="二部主管範圍_24_1_1_1_1_1"/>
+    <protectedRange sqref="C31:D31" name="二部主管範圍_25_1_1_1_1_1"/>
+    <protectedRange sqref="C29:D29" name="二部主管範圍_26_1_1_1_1_1"/>
+    <protectedRange sqref="C36:D36" name="二部主管範圍_27_1_1_1_1_1"/>
+    <protectedRange sqref="C37:D38" name="二部主管範圍_28_1_1_1_1_1"/>
+    <protectedRange sqref="C33:D33" name="二部主管範圍_29_1_1_1_1_1"/>
+    <protectedRange sqref="C34:D34" name="二部主管範圍_30_1_1_1_1_1"/>
+    <protectedRange sqref="C35:D35" name="二部主管範圍_31_1_1_1_1_1"/>
+    <protectedRange sqref="C39:D39" name="二部主管範圍_32_1_1_1_1_1"/>
+    <protectedRange sqref="C40:D40" name="二部主管範圍_33_1_1_1_1_1"/>
+    <protectedRange sqref="C30:D30" name="二部主管範圍_34_1_1_1_1_1"/>
+    <protectedRange sqref="C41:D41" name="二部主管範圍_35_1_1_1_1_1"/>
+    <protectedRange sqref="C42:D42" name="二部主管範圍_36_1_1_1_1_1"/>
+    <protectedRange sqref="A16:B16" name="二部計畫範圍_2_1_1"/>
+    <protectedRange sqref="A23:B23" name="二部計畫範圍_4_1_1_1"/>
+    <protectedRange sqref="C23:D23" name="二部主管範圍_2_1_1"/>
+    <protectedRange sqref="C16:D16" name="二部主管範圍_1_2_1_1"/>
+    <protectedRange sqref="A5:B5" name="二部計畫範圍_1"/>
+    <protectedRange sqref="C5:D5" name="二部主管範圍_2"/>
+    <protectedRange sqref="C11:D11" name="二部主管範圍_1_1"/>
+    <protectedRange sqref="A11:B11" name="二部計畫範圍_3_1"/>
   </protectedRanges>
   <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2124,40 +2160,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\Autodesk費用統整\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5835EE-8B03-4648-9474-80E7E7C71919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="180">
   <si>
     <t>年月</t>
   </si>
@@ -426,18 +427,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北捷局萬大線二期DQ125標施工中服務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蘇政龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北捷局萬大線二期DQ126設計標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黃文俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱書賢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陳立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0661B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱書賢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0687B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周汶叡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0775B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詹仁安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>張宏泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詹仁安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陳潔如</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莊志維</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4548N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陳柏愷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7461C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曾慶星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9510Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,14 +659,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0841B</t>
+  </si>
+  <si>
+    <t>新北捷局中和光復線可行性研究</t>
+  </si>
+  <si>
+    <t>李安爵</t>
+  </si>
+  <si>
+    <t>0845B</t>
+  </si>
+  <si>
+    <t>中捷局台中捷運藍線BD03標細設</t>
+  </si>
+  <si>
+    <t>汪安邦</t>
+  </si>
+  <si>
+    <t>0405B</t>
+  </si>
+  <si>
+    <t>億欣航空城區徵B2統包之細設</t>
+  </si>
+  <si>
+    <t>楊健邦</t>
+  </si>
+  <si>
+    <t>1325P</t>
+  </si>
+  <si>
+    <t>新北捷局淡海輕軌二期路網先期工程專案管理</t>
+  </si>
+  <si>
+    <t>張宏泰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1164,8 +1153,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1211,7 +1200,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D2" s="7">
         <v>4125</v>
@@ -1228,10 +1217,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D3" s="7">
         <v>3398</v>
@@ -1248,7 +1237,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>79</v>
@@ -1265,13 +1254,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
         <v>4839</v>
@@ -1288,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>56</v>
@@ -1308,10 +1297,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
         <v>3884</v>
@@ -1331,7 +1320,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7">
         <v>5085</v>
@@ -1345,7 +1334,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>92</v>
@@ -1371,7 +1360,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="7">
         <v>4518</v>
@@ -1385,10 +1374,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>78</v>
@@ -1404,17 +1393,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4728</v>
+      <c r="A12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5610</v>
       </c>
       <c r="E12" s="7">
         <v>22</v>
@@ -1425,36 +1414,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>7383</v>
+        <v>4728</v>
       </c>
       <c r="E13" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
-        <v>3884</v>
+        <v>7383</v>
       </c>
       <c r="E14" s="7">
         <v>24</v>
@@ -1465,36 +1454,36 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>4867</v>
+        <v>3884</v>
       </c>
       <c r="E15" s="7">
         <v>24</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>6877</v>
+        <v>4867</v>
       </c>
       <c r="E16" s="7">
         <v>24</v>
@@ -1505,10 +1494,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>76</v>
@@ -1520,84 +1509,84 @@
         <v>24</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="D18" s="7">
-        <v>5085</v>
+        <v>6877</v>
       </c>
       <c r="E18" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>5180</v>
+        <v>5085</v>
       </c>
       <c r="E19" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7">
-        <v>5973</v>
+        <v>5180</v>
       </c>
       <c r="E20" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7">
-        <v>4313</v>
+        <v>5973</v>
       </c>
       <c r="E21" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
@@ -1605,19 +1594,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
-        <v>7383</v>
+        <v>4313</v>
       </c>
       <c r="E22" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7">
         <v>0</v>
@@ -1625,19 +1614,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
-        <v>7456</v>
+        <v>7383</v>
       </c>
       <c r="E23" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -1645,19 +1634,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D24" s="7">
-        <v>3483</v>
+        <v>7456</v>
       </c>
       <c r="E24" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -1665,16 +1654,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D25" s="7">
-        <v>4867</v>
+        <v>3483</v>
       </c>
       <c r="E25" s="7">
         <v>24</v>
@@ -1684,54 +1673,54 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="7">
-        <v>5386</v>
+      <c r="A26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5835</v>
       </c>
       <c r="E26" s="7">
         <v>24</v>
       </c>
       <c r="F26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4838</v>
+      <c r="A27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4320</v>
       </c>
       <c r="E27" s="7">
         <v>24</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D28" s="7">
         <v>4867</v>
@@ -1745,16 +1734,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D29" s="7">
-        <v>5180</v>
+        <v>5386</v>
       </c>
       <c r="E29" s="7">
         <v>24</v>
@@ -1764,37 +1753,37 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="6">
-        <v>5050</v>
-      </c>
-      <c r="E30" s="6">
-        <v>92</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
+      <c r="A30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4838</v>
+      </c>
+      <c r="E30" s="7">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D31" s="7">
-        <v>4821</v>
+        <v>4867</v>
       </c>
       <c r="E31" s="7">
         <v>24</v>
@@ -1805,39 +1794,39 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="D32" s="7">
-        <v>4082</v>
+        <v>5180</v>
       </c>
       <c r="E32" s="7">
         <v>24</v>
       </c>
       <c r="F32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="D33" s="6">
-        <v>5835</v>
+        <v>5050</v>
       </c>
       <c r="E33" s="6">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -1845,16 +1834,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="D34" s="7">
-        <v>5091</v>
+        <v>4821</v>
       </c>
       <c r="E34" s="7">
         <v>24</v>
@@ -1864,17 +1853,17 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="7">
-        <v>4125</v>
+      <c r="A35" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5386</v>
       </c>
       <c r="E35" s="7">
         <v>24</v>
@@ -1885,10 +1874,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>87</v>
@@ -1904,37 +1893,37 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4948</v>
-      </c>
-      <c r="E37" s="7">
-        <v>33</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="A37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5835</v>
+      </c>
+      <c r="E37" s="6">
+        <v>24</v>
+      </c>
+      <c r="F37" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="7">
-        <v>5526</v>
+        <v>5091</v>
       </c>
       <c r="E38" s="7">
         <v>24</v>
@@ -1945,16 +1934,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="D39" s="7">
-        <v>4143</v>
+        <v>4125</v>
       </c>
       <c r="E39" s="7">
         <v>24</v>
@@ -1965,16 +1954,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="D40" s="7">
-        <v>4320</v>
+        <v>4082</v>
       </c>
       <c r="E40" s="7">
         <v>24</v>
@@ -1985,19 +1974,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D41" s="7">
-        <v>6877</v>
+        <v>4948</v>
       </c>
       <c r="E41" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -2005,13 +1994,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="D42" s="7">
         <v>5526</v>
@@ -2024,37 +2013,37 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="6">
-        <v>3483</v>
-      </c>
-      <c r="E43" s="6">
-        <v>92</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="A43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4143</v>
+      </c>
+      <c r="E43" s="7">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D44" s="7">
-        <v>4867</v>
+        <v>4320</v>
       </c>
       <c r="E44" s="7">
         <v>24</v>
@@ -2065,79 +2054,159 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="D45" s="7">
+        <v>6877</v>
+      </c>
+      <c r="E45" s="7">
+        <v>24</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5526</v>
+      </c>
+      <c r="E46" s="7">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3483</v>
+      </c>
+      <c r="E47" s="6">
+        <v>92</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E48" s="7">
+        <v>24</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="7">
         <v>4125</v>
       </c>
-      <c r="E45" s="7">
-        <v>24</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E49" s="7">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A17:B22 A6:B10 A12:B15 E7:F42 A24:B42" name="二部計畫範圍_1_1_1_1_1"/>
+    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A18:B23 A6:B10 A13:B16 A25:B46 E7:F46" name="二部計畫範圍_1_1_1_1_1"/>
     <protectedRange sqref="C6:E6" name="二部主管範圍_2_1_1_1_1_1"/>
     <protectedRange sqref="C4:E4 E5" name="二部主管範圍_3_1_1_1_1_1"/>
     <protectedRange sqref="C8:D8" name="二部主管範圍_4_1_1_1_1_1"/>
     <protectedRange sqref="C7:D7" name="二部主管範圍_5_1_1_1_1_1"/>
     <protectedRange sqref="C3:D3" name="二部主管範圍_6_1_1_1_1_1"/>
     <protectedRange sqref="C10:D10" name="二部主管範圍_7_1_1_1_1_1"/>
-    <protectedRange sqref="C12:D12" name="二部主管範圍_8_1_1_1_1_1"/>
+    <protectedRange sqref="C13:D13" name="二部主管範圍_8_1_1_1_1_1"/>
     <protectedRange sqref="C9:D9" name="二部主管範圍_9_1_1_1_1_1"/>
-    <protectedRange sqref="C13:D13" name="二部主管範圍_10_1_1_1_1_1"/>
-    <protectedRange sqref="C14:D14" name="二部主管範圍_11_1_1_1_1_1"/>
-    <protectedRange sqref="C15:D15" name="二部主管範圍_12_1_1_1_1_1"/>
-    <protectedRange sqref="C17:D17" name="二部主管範圍_13_1_1_1_1_1"/>
-    <protectedRange sqref="C18:D18" name="二部主管範圍_14_1_1_1_1_1"/>
-    <protectedRange sqref="C32:D32" name="二部主管範圍_15_1_1_1_1_1"/>
-    <protectedRange sqref="C19:D19" name="二部主管範圍_16_1_1_1_1_1"/>
-    <protectedRange sqref="C26:D26" name="二部主管範圍_17_1_1_1_1_1"/>
-    <protectedRange sqref="C20:D20" name="二部主管範圍_18_1_1_1_1_1"/>
-    <protectedRange sqref="C21:D21" name="二部主管範圍_19_1_1_1_1_1"/>
-    <protectedRange sqref="C22:D22" name="二部主管範圍_20_1_1_1_1_1"/>
-    <protectedRange sqref="C24:D24" name="二部主管範圍_21_1_1_1_1_1"/>
-    <protectedRange sqref="C25:D25" name="二部主管範圍_22_1_1_1_1_1"/>
-    <protectedRange sqref="C27:D27" name="二部主管範圍_23_1_1_1_1_1"/>
-    <protectedRange sqref="C28:D28" name="二部主管範圍_24_1_1_1_1_1"/>
-    <protectedRange sqref="C31:D31" name="二部主管範圍_25_1_1_1_1_1"/>
-    <protectedRange sqref="C29:D29" name="二部主管範圍_26_1_1_1_1_1"/>
-    <protectedRange sqref="C36:D36" name="二部主管範圍_27_1_1_1_1_1"/>
-    <protectedRange sqref="C37:D38" name="二部主管範圍_28_1_1_1_1_1"/>
-    <protectedRange sqref="C33:D33" name="二部主管範圍_29_1_1_1_1_1"/>
-    <protectedRange sqref="C34:D34" name="二部主管範圍_30_1_1_1_1_1"/>
-    <protectedRange sqref="C35:D35" name="二部主管範圍_31_1_1_1_1_1"/>
-    <protectedRange sqref="C39:D39" name="二部主管範圍_32_1_1_1_1_1"/>
-    <protectedRange sqref="C40:D40" name="二部主管範圍_33_1_1_1_1_1"/>
-    <protectedRange sqref="C30:D30" name="二部主管範圍_34_1_1_1_1_1"/>
-    <protectedRange sqref="C41:D41" name="二部主管範圍_35_1_1_1_1_1"/>
-    <protectedRange sqref="C42:D42" name="二部主管範圍_36_1_1_1_1_1"/>
-    <protectedRange sqref="A16:B16" name="二部計畫範圍_2_1_1"/>
-    <protectedRange sqref="A23:B23" name="二部計畫範圍_4_1_1_1"/>
-    <protectedRange sqref="C23:D23" name="二部主管範圍_2_1_1"/>
-    <protectedRange sqref="C16:D16" name="二部主管範圍_1_2_1_1"/>
+    <protectedRange sqref="C14:D14" name="二部主管範圍_10_1_1_1_1_1"/>
+    <protectedRange sqref="C15:D15" name="二部主管範圍_11_1_1_1_1_1"/>
+    <protectedRange sqref="C16:D16" name="二部主管範圍_12_1_1_1_1_1"/>
+    <protectedRange sqref="C18:D18" name="二部主管範圍_13_1_1_1_1_1"/>
+    <protectedRange sqref="C19:D19" name="二部主管範圍_14_1_1_1_1_1"/>
+    <protectedRange sqref="C36:D36" name="二部主管範圍_15_1_1_1_1_1"/>
+    <protectedRange sqref="C20:D20" name="二部主管範圍_16_1_1_1_1_1"/>
+    <protectedRange sqref="C29:D29" name="二部主管範圍_17_1_1_1_1_1"/>
+    <protectedRange sqref="C21:D21" name="二部主管範圍_18_1_1_1_1_1"/>
+    <protectedRange sqref="C22:D22" name="二部主管範圍_19_1_1_1_1_1"/>
+    <protectedRange sqref="C23:D23" name="二部主管範圍_20_1_1_1_1_1"/>
+    <protectedRange sqref="C25:D27" name="二部主管範圍_21_1_1_1_1_1"/>
+    <protectedRange sqref="C28:D28" name="二部主管範圍_22_1_1_1_1_1"/>
+    <protectedRange sqref="C30:D30" name="二部主管範圍_23_1_1_1_1_1"/>
+    <protectedRange sqref="C31:D31" name="二部主管範圍_24_1_1_1_1_1"/>
+    <protectedRange sqref="C34:D35" name="二部主管範圍_25_1_1_1_1_1"/>
+    <protectedRange sqref="C32:D32" name="二部主管範圍_26_1_1_1_1_1"/>
+    <protectedRange sqref="C40:D40" name="二部主管範圍_27_1_1_1_1_1"/>
+    <protectedRange sqref="C41:D42" name="二部主管範圍_28_1_1_1_1_1"/>
+    <protectedRange sqref="C37:D37" name="二部主管範圍_29_1_1_1_1_1"/>
+    <protectedRange sqref="C38:D38" name="二部主管範圍_30_1_1_1_1_1"/>
+    <protectedRange sqref="C39:D39" name="二部主管範圍_31_1_1_1_1_1"/>
+    <protectedRange sqref="C43:D43" name="二部主管範圍_32_1_1_1_1_1"/>
+    <protectedRange sqref="C44:D44" name="二部主管範圍_33_1_1_1_1_1"/>
+    <protectedRange sqref="C33:D33" name="二部主管範圍_34_1_1_1_1_1"/>
+    <protectedRange sqref="C45:D45" name="二部主管範圍_35_1_1_1_1_1"/>
+    <protectedRange sqref="C46:D46" name="二部主管範圍_36_1_1_1_1_1"/>
+    <protectedRange sqref="A17:B17" name="二部計畫範圍_2_1_1"/>
+    <protectedRange sqref="A24:B24" name="二部計畫範圍_4_1_1_1"/>
+    <protectedRange sqref="C24:D24" name="二部主管範圍_2_1_1"/>
+    <protectedRange sqref="C17:D17" name="二部主管範圍_1_2_1_1"/>
     <protectedRange sqref="A5:B5" name="二部計畫範圍_1"/>
     <protectedRange sqref="C5:D5" name="二部主管範圍_2"/>
-    <protectedRange sqref="C11:D11" name="二部主管範圍_1_1"/>
-    <protectedRange sqref="A11:B11" name="二部計畫範圍_3_1"/>
+    <protectedRange sqref="C11:D12" name="二部主管範圍_1_1"/>
+    <protectedRange sqref="A11:B12" name="二部計畫範圍_3_1"/>
   </protectedRanges>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2266,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2205,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2251,7 +2320,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2259,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2314,14 +2383,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2378,14 +2447,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2440,14 +2509,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2502,14 +2571,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2564,14 +2633,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2715,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2"/>
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\Autodesk費用統整\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5835EE-8B03-4648-9474-80E7E7C71919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
   <si>
     <t>年月</t>
   </si>
@@ -693,12 +692,24 @@
   </si>
   <si>
     <t>張宏泰</t>
+  </si>
+  <si>
+    <t>5102Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土機設計納入運轉模擬研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王思涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1153,8 +1164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1994,16 +2005,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="D42" s="7">
-        <v>5526</v>
+        <v>6112</v>
       </c>
       <c r="E42" s="7">
         <v>24</v>
@@ -2014,16 +2025,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D43" s="7">
-        <v>4143</v>
+        <v>5526</v>
       </c>
       <c r="E43" s="7">
         <v>24</v>
@@ -2034,16 +2045,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D44" s="7">
-        <v>4320</v>
+        <v>4143</v>
       </c>
       <c r="E44" s="7">
         <v>24</v>
@@ -2054,16 +2065,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D45" s="7">
-        <v>6877</v>
+        <v>4320</v>
       </c>
       <c r="E45" s="7">
         <v>24</v>
@@ -2074,87 +2085,107 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="7">
+        <v>6877</v>
+      </c>
+      <c r="E46" s="7">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>5526</v>
       </c>
-      <c r="E46" s="7">
-        <v>24</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="E47" s="7">
+        <v>24</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>3483</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>92</v>
       </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="7">
-        <v>4867</v>
-      </c>
-      <c r="E48" s="7">
-        <v>24</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E49" s="7">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>4125</v>
       </c>
-      <c r="E49" s="7">
-        <v>24</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="E50" s="7">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A18:B23 A6:B10 A13:B16 A25:B46 E7:F46" name="二部計畫範圍_1_1_1_1_1"/>
+    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A18:B23 A6:B10 A13:B16 A25:B41 E7:F41 A43:B47 E43:F47" name="二部計畫範圍_1_1_1_1_1"/>
     <protectedRange sqref="C6:E6" name="二部主管範圍_2_1_1_1_1_1"/>
     <protectedRange sqref="C4:E4 E5" name="二部主管範圍_3_1_1_1_1_1"/>
     <protectedRange sqref="C8:D8" name="二部主管範圍_4_1_1_1_1_1"/>
@@ -2181,15 +2212,15 @@
     <protectedRange sqref="C34:D35" name="二部主管範圍_25_1_1_1_1_1"/>
     <protectedRange sqref="C32:D32" name="二部主管範圍_26_1_1_1_1_1"/>
     <protectedRange sqref="C40:D40" name="二部主管範圍_27_1_1_1_1_1"/>
-    <protectedRange sqref="C41:D42" name="二部主管範圍_28_1_1_1_1_1"/>
+    <protectedRange sqref="C41:D41 C43:D43" name="二部主管範圍_28_1_1_1_1_1"/>
     <protectedRange sqref="C37:D37" name="二部主管範圍_29_1_1_1_1_1"/>
     <protectedRange sqref="C38:D38" name="二部主管範圍_30_1_1_1_1_1"/>
     <protectedRange sqref="C39:D39" name="二部主管範圍_31_1_1_1_1_1"/>
-    <protectedRange sqref="C43:D43" name="二部主管範圍_32_1_1_1_1_1"/>
-    <protectedRange sqref="C44:D44" name="二部主管範圍_33_1_1_1_1_1"/>
+    <protectedRange sqref="C44:D44" name="二部主管範圍_32_1_1_1_1_1"/>
+    <protectedRange sqref="C45:D45" name="二部主管範圍_33_1_1_1_1_1"/>
     <protectedRange sqref="C33:D33" name="二部主管範圍_34_1_1_1_1_1"/>
-    <protectedRange sqref="C45:D45" name="二部主管範圍_35_1_1_1_1_1"/>
-    <protectedRange sqref="C46:D46" name="二部主管範圍_36_1_1_1_1_1"/>
+    <protectedRange sqref="C46:D46" name="二部主管範圍_35_1_1_1_1_1"/>
+    <protectedRange sqref="C47:D47" name="二部主管範圍_36_1_1_1_1_1"/>
     <protectedRange sqref="A17:B17" name="二部計畫範圍_2_1_1"/>
     <protectedRange sqref="A24:B24" name="二部計畫範圍_4_1_1_1"/>
     <protectedRange sqref="C24:D24" name="二部主管範圍_2_1_1"/>
@@ -2198,15 +2229,17 @@
     <protectedRange sqref="C5:D5" name="二部主管範圍_2"/>
     <protectedRange sqref="C11:D12" name="二部主管範圍_1_1"/>
     <protectedRange sqref="A11:B12" name="二部計畫範圍_3_1"/>
+    <protectedRange sqref="A42:B42 E42:F42" name="二部計畫範圍_1_1_1_1_1_1"/>
+    <protectedRange sqref="C42:D42" name="二部主管範圍_28_1_1_1_1_1_1"/>
   </protectedRanges>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2266,7 +2299,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2274,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,7 +2353,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2328,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2383,14 +2416,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2447,14 +2480,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2509,14 +2542,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,14 +2604,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,14 +2666,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2748,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="B2:I2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整(原).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
   <si>
     <t>年月</t>
   </si>
@@ -216,19 +216,509 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主辦部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫簡稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+  </si>
+  <si>
+    <t>繪圖</t>
+  </si>
+  <si>
+    <t>硬體</t>
+  </si>
+  <si>
+    <t>軟體</t>
+  </si>
+  <si>
+    <t>使用者總計</t>
+  </si>
+  <si>
+    <t>計畫編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歸屬部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月租/時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路維護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品/其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭哲翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉鳴錚</t>
+  </si>
+  <si>
+    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大二期126標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北環狀線運量檢討及優化轉乘服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新北捷局基隆捷運基本設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0747B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ126設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鈴聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市泰山板橋輕軌周邊土開可研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱書賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0763B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇啟鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4520N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張進平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5103Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳柏愷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5102Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0080E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125標施工中服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0083E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷環狀線東環段設計暨測量地調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0376B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永青航空城區徵D3統包之細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷黃線YC01標統包Y1~Y4站細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳滄江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李岳洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土機設計納入運轉模擬研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局中捷烏日文心線DJ103標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局捷運萬大線DQ122細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷R11永久車站設計顧問服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷局萬大線二期DQ125設計標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇政龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>陳育甄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主辦部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫簡稱</t>
+    <t>0244B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃文俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0344B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃世璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳平天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0404B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠揚航空城區徵D1統包之細設(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0406B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汶叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0632B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0638B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高市府左營-橋頭鐵路立體化可研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓逸程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0661B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0682B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC03標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱書賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0687B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0732B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市敦化北路地下貯留設施規劃設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工信高捷黃線YC02標統包細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王禮賀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北捷民汐捷運土建基設及調查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0775B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0777B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷黃線YD01標土建及設施機電細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0841B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局中和光復線可行性研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李安爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0845B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中捷局台中捷運藍線BD03標細設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪安邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局-23捷運延伸總顧問</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹仁安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張宏泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1172P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園航空城捷運線專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高煒城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵道局前瞻計畫機捷A14站專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳滄江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1295P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南科新設園區新建建築工程專管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳潔如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局基隆捷運(南港至八堵)招標作業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱美麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1325P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局淡海輕軌二期路網先期工程專案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張宏泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中捷藍線建設計畫BD03標細設監造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊志維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4548N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局光復中和線可行性研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5080Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水設計自動化(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝文凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5092Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建構備標通用資料庫-設計類標案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴建名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5093Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運造價與碳排估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5098Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷運地工分析資料及知識庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾紀緯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,473 +726,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黃世璋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>員編</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-  </si>
-  <si>
-    <t>繪圖</t>
-  </si>
-  <si>
-    <t>硬體</t>
-  </si>
-  <si>
-    <t>軟體</t>
-  </si>
-  <si>
-    <t>使用者總計</t>
-  </si>
-  <si>
-    <t>計畫編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歸屬部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月租/時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網路維護</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品/其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0244B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭哲翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉鳴錚</t>
-  </si>
-  <si>
-    <t>蘇政龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083B</t>
+    <t>消防撒水自動化設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王思涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinoStation2025與BIM平台擴充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6273C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李臺生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪安邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳柏愷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7461C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣生活圈道路建設細部設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾慶星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7489C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高捷R11車站商業空間設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水雅加達CP202第三方認證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9510Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門行政(光碟/鍵盤/滑鼠/OFFICE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4467N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北捷局基隆捷運(南港至八堵)專案管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陳滄江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局臺鐵海線雙軌化(談文至追分)綜規</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局-23捷運延伸總顧問</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1295P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南科新設園區新建建築工程專管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1313P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莊志維</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴建名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6273C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大二期126標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局花東鐵路雙軌電氣化南段設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0376B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局宜蘭至羅東鐵路高架化綜規</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永青航空城區徵D3統包之細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北環狀線運量檢討及優化轉乘服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0632B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新北捷局基隆捷運基本設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0747B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC02標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0777B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李安爵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5080Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝文凱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷R11永久車站設計顧問服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳柏愷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清水雅加達CP202第三方認證</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0080B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ125標施工中服務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局萬大線二期DQ126設計標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鈴聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市泰山板橋輕軌周邊土開可研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷環狀線東環段設計暨測量地調</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱書賢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0344B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳平天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0404B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠揚航空城區徵D1統包之細設(22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0406B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周汶叡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北捷東環段DF120標細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詹仁安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局高鐵彰化與台鐵田中轉乘接駁設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0661B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷黃線YC01標統包Y1~Y4站細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0682B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工信高捷黃線YC03標統包細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0687B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0732B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市敦化北路地下貯留設施規劃設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李岳洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王禮賀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0763B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷民汐捷運土建基設及調查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0775B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高捷黃線YD01標土建及設施機電細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾慶星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張宏泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇啟鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵道局前瞻計畫機捷A14站專管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳潔如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北捷局基隆捷運(南港至八堵)招標作業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱美麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4520N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中捷藍線建設計畫BD03標細設監造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4548N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北捷局光復中和線可行性研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排水設計自動化(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5092Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建構備標通用資料庫-設計類標案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5093Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷運造價與碳排估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防撒水自動化設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張進平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5103Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SinoStation2025與BIM平台擴充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局中捷烏日文心線DJ103標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李臺生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北捷局捷運萬大線DQ122細設</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪安邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7461C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東縣生活圈道路建設細部設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9510Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門行政(光碟/鍵盤/滑鼠/OFFICE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0841B</t>
-  </si>
-  <si>
-    <t>新北捷局中和光復線可行性研究</t>
-  </si>
-  <si>
-    <t>李安爵</t>
-  </si>
-  <si>
-    <t>0845B</t>
-  </si>
-  <si>
-    <t>中捷局台中捷運藍線BD03標細設</t>
-  </si>
-  <si>
-    <t>汪安邦</t>
-  </si>
-  <si>
-    <t>0405B</t>
-  </si>
-  <si>
-    <t>億欣航空城區徵B2統包之細設</t>
-  </si>
-  <si>
-    <t>楊健邦</t>
-  </si>
-  <si>
-    <t>1325P</t>
-  </si>
-  <si>
-    <t>新北捷局淡海輕軌二期路網先期工程專案管理</t>
-  </si>
-  <si>
-    <t>張宏泰</t>
-  </si>
-  <si>
-    <t>5102Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土機設計納入運轉模擬研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王思涵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1185,19 +1277,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>48</v>
@@ -1205,13 +1297,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7">
         <v>4125</v>
@@ -1225,13 +1317,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D3" s="7">
         <v>3398</v>
@@ -1245,13 +1337,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D4" s="7">
         <v>3398</v>
@@ -1265,13 +1357,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
         <v>4839</v>
@@ -1288,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
         <v>5139</v>
@@ -1305,13 +1397,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
         <v>3884</v>
@@ -1331,7 +1423,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7">
         <v>5085</v>
@@ -1345,13 +1437,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D9" s="7">
         <v>4751</v>
@@ -1365,13 +1457,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
         <v>4518</v>
@@ -1385,13 +1477,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
         <v>4708</v>
@@ -1404,17 +1496,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5610</v>
+      <c r="A12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4728</v>
       </c>
       <c r="E12" s="7">
         <v>22</v>
@@ -1425,36 +1517,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>4728</v>
+        <v>7383</v>
       </c>
       <c r="E13" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>7383</v>
+        <v>3884</v>
       </c>
       <c r="E14" s="7">
         <v>24</v>
@@ -1465,36 +1557,36 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7">
-        <v>3884</v>
+        <v>4867</v>
       </c>
       <c r="E15" s="7">
         <v>24</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>4867</v>
+        <v>6877</v>
       </c>
       <c r="E16" s="7">
         <v>24</v>
@@ -1505,19 +1597,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D17" s="7">
-        <v>6877</v>
+        <v>3396</v>
       </c>
       <c r="E17" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -1525,13 +1617,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7">
         <v>6877</v>
@@ -1545,13 +1637,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7">
         <v>5085</v>
@@ -1565,13 +1657,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D20" s="7">
         <v>5180</v>
@@ -1585,13 +1677,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7">
         <v>5973</v>
@@ -1605,13 +1697,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D22" s="7">
         <v>4313</v>
@@ -1625,13 +1717,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7">
         <v>7383</v>
@@ -1645,13 +1737,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
         <v>7456</v>
@@ -1665,13 +1757,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7">
         <v>3483</v>
@@ -1684,16 +1776,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="A26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7">
         <v>5835</v>
       </c>
       <c r="E26" s="7">
@@ -1704,16 +1796,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="A27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="7">
         <v>4320</v>
       </c>
       <c r="E27" s="7">
@@ -1728,10 +1820,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D28" s="7">
         <v>4867</v>
@@ -1751,7 +1843,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D29" s="7">
         <v>5386</v>
@@ -1771,7 +1863,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D30" s="7">
         <v>4838</v>
@@ -1785,19 +1877,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D31" s="7">
-        <v>4867</v>
+        <v>4947</v>
       </c>
       <c r="E31" s="7">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
@@ -1805,76 +1897,76 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E32" s="7">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="7">
         <v>5180</v>
       </c>
-      <c r="E32" s="7">
-        <v>24</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E33" s="7">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="6">
         <v>5050</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>92</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="7">
         <v>4821</v>
-      </c>
-      <c r="E34" s="7">
-        <v>24</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="6">
-        <v>5386</v>
       </c>
       <c r="E35" s="7">
         <v>24</v>
@@ -1885,16 +1977,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D36" s="7">
-        <v>4082</v>
+        <v>5386</v>
       </c>
       <c r="E36" s="7">
         <v>24</v>
@@ -1904,37 +1996,37 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="6">
-        <v>5835</v>
-      </c>
-      <c r="E37" s="6">
-        <v>24</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="A37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5180</v>
+      </c>
+      <c r="E37" s="7">
+        <v>24</v>
+      </c>
+      <c r="F37" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D38" s="7">
-        <v>5091</v>
+        <v>4082</v>
       </c>
       <c r="E38" s="7">
         <v>24</v>
@@ -1944,37 +2036,37 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4125</v>
-      </c>
-      <c r="E39" s="7">
-        <v>24</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="A39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5835</v>
+      </c>
+      <c r="E39" s="6">
+        <v>24</v>
+      </c>
+      <c r="F39" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="D40" s="7">
-        <v>4082</v>
+        <v>5091</v>
       </c>
       <c r="E40" s="7">
         <v>24</v>
@@ -1985,19 +2077,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D41" s="7">
-        <v>4948</v>
+        <v>4125</v>
       </c>
       <c r="E41" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -2005,16 +2097,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="C42" s="7" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7">
-        <v>6112</v>
+        <v>4082</v>
       </c>
       <c r="E42" s="7">
         <v>24</v>
@@ -2025,16 +2117,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="D43" s="7">
-        <v>5526</v>
+        <v>6014</v>
       </c>
       <c r="E43" s="7">
         <v>24</v>
@@ -2045,19 +2137,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D44" s="7">
-        <v>4143</v>
+        <v>4948</v>
       </c>
       <c r="E44" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F44" s="7">
         <v>0</v>
@@ -2065,16 +2157,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D45" s="7">
-        <v>4320</v>
+        <v>6112</v>
       </c>
       <c r="E45" s="7">
         <v>24</v>
@@ -2085,16 +2177,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7">
-        <v>6877</v>
+        <v>5526</v>
       </c>
       <c r="E46" s="7">
         <v>24</v>
@@ -2105,16 +2197,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="D47" s="7">
-        <v>5526</v>
+        <v>4143</v>
       </c>
       <c r="E47" s="7">
         <v>24</v>
@@ -2124,37 +2216,37 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3483</v>
-      </c>
-      <c r="E48" s="6">
-        <v>92</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="A48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="7">
+        <v>4320</v>
+      </c>
+      <c r="E48" s="7">
+        <v>24</v>
+      </c>
+      <c r="F48" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D49" s="7">
-        <v>4867</v>
+        <v>6877</v>
       </c>
       <c r="E49" s="7">
         <v>24</v>
@@ -2165,41 +2257,121 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="D50" s="7">
+        <v>5526</v>
+      </c>
+      <c r="E50" s="7">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3483</v>
+      </c>
+      <c r="E51" s="6">
+        <v>92</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5526</v>
+      </c>
+      <c r="E52" s="6">
+        <v>24</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E53" s="7">
+        <v>24</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="7">
         <v>4125</v>
       </c>
-      <c r="E50" s="7">
-        <v>24</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="E54" s="7">
+        <v>24</v>
+      </c>
+      <c r="F54" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A18:B23 A6:B10 A13:B16 A25:B41 E7:F41 A43:B47 E43:F47" name="二部計畫範圍_1_1_1_1_1"/>
+    <protectedRange sqref="F2 F4:F6 E3:F3 A2:B4 A18:B23 A6:B10 A12:B15 E7:F36 A25:B36 E46:F50 A46:B50 E38:F44 A38:B44" name="二部計畫範圍_1_1_1_1_1"/>
     <protectedRange sqref="C6:E6" name="二部主管範圍_2_1_1_1_1_1"/>
     <protectedRange sqref="C4:E4 E5" name="二部主管範圍_3_1_1_1_1_1"/>
     <protectedRange sqref="C8:D8" name="二部主管範圍_4_1_1_1_1_1"/>
     <protectedRange sqref="C7:D7" name="二部主管範圍_5_1_1_1_1_1"/>
     <protectedRange sqref="C3:D3" name="二部主管範圍_6_1_1_1_1_1"/>
     <protectedRange sqref="C10:D10" name="二部主管範圍_7_1_1_1_1_1"/>
-    <protectedRange sqref="C13:D13" name="二部主管範圍_8_1_1_1_1_1"/>
+    <protectedRange sqref="C12:D12" name="二部主管範圍_8_1_1_1_1_1"/>
     <protectedRange sqref="C9:D9" name="二部主管範圍_9_1_1_1_1_1"/>
-    <protectedRange sqref="C14:D14" name="二部主管範圍_10_1_1_1_1_1"/>
-    <protectedRange sqref="C15:D15" name="二部主管範圍_11_1_1_1_1_1"/>
-    <protectedRange sqref="C16:D16" name="二部主管範圍_12_1_1_1_1_1"/>
+    <protectedRange sqref="C13:D13" name="二部主管範圍_10_1_1_1_1_1"/>
+    <protectedRange sqref="C14:D14" name="二部主管範圍_11_1_1_1_1_1"/>
+    <protectedRange sqref="C15:D15" name="二部主管範圍_12_1_1_1_1_1"/>
     <protectedRange sqref="C18:D18" name="二部主管範圍_13_1_1_1_1_1"/>
     <protectedRange sqref="C19:D19" name="二部主管範圍_14_1_1_1_1_1"/>
-    <protectedRange sqref="C36:D36" name="二部主管範圍_15_1_1_1_1_1"/>
+    <protectedRange sqref="C38:D38" name="二部主管範圍_15_1_1_1_1_1"/>
     <protectedRange sqref="C20:D20" name="二部主管範圍_16_1_1_1_1_1"/>
     <protectedRange sqref="C29:D29" name="二部主管範圍_17_1_1_1_1_1"/>
     <protectedRange sqref="C21:D21" name="二部主管範圍_18_1_1_1_1_1"/>
@@ -2207,30 +2379,32 @@
     <protectedRange sqref="C23:D23" name="二部主管範圍_20_1_1_1_1_1"/>
     <protectedRange sqref="C25:D27" name="二部主管範圍_21_1_1_1_1_1"/>
     <protectedRange sqref="C28:D28" name="二部主管範圍_22_1_1_1_1_1"/>
-    <protectedRange sqref="C30:D30" name="二部主管範圍_23_1_1_1_1_1"/>
-    <protectedRange sqref="C31:D31" name="二部主管範圍_24_1_1_1_1_1"/>
-    <protectedRange sqref="C34:D35" name="二部主管範圍_25_1_1_1_1_1"/>
-    <protectedRange sqref="C32:D32" name="二部主管範圍_26_1_1_1_1_1"/>
-    <protectedRange sqref="C40:D40" name="二部主管範圍_27_1_1_1_1_1"/>
-    <protectedRange sqref="C41:D41 C43:D43" name="二部主管範圍_28_1_1_1_1_1"/>
-    <protectedRange sqref="C37:D37" name="二部主管範圍_29_1_1_1_1_1"/>
-    <protectedRange sqref="C38:D38" name="二部主管範圍_30_1_1_1_1_1"/>
-    <protectedRange sqref="C39:D39" name="二部主管範圍_31_1_1_1_1_1"/>
-    <protectedRange sqref="C44:D44" name="二部主管範圍_32_1_1_1_1_1"/>
-    <protectedRange sqref="C45:D45" name="二部主管範圍_33_1_1_1_1_1"/>
-    <protectedRange sqref="C33:D33" name="二部主管範圍_34_1_1_1_1_1"/>
-    <protectedRange sqref="C46:D46" name="二部主管範圍_35_1_1_1_1_1"/>
-    <protectedRange sqref="C47:D47" name="二部主管範圍_36_1_1_1_1_1"/>
-    <protectedRange sqref="A17:B17" name="二部計畫範圍_2_1_1"/>
+    <protectedRange sqref="C30:D31" name="二部主管範圍_23_1_1_1_1_1"/>
+    <protectedRange sqref="C32:D32" name="二部主管範圍_24_1_1_1_1_1"/>
+    <protectedRange sqref="C35:D36" name="二部主管範圍_25_1_1_1_1_1"/>
+    <protectedRange sqref="C33:D33" name="二部主管範圍_26_1_1_1_1_1"/>
+    <protectedRange sqref="C42:D43" name="二部主管範圍_27_1_1_1_1_1"/>
+    <protectedRange sqref="C44:D44 C46:D46" name="二部主管範圍_28_1_1_1_1_1"/>
+    <protectedRange sqref="C39:D39" name="二部主管範圍_29_1_1_1_1_1"/>
+    <protectedRange sqref="C40:D40" name="二部主管範圍_30_1_1_1_1_1"/>
+    <protectedRange sqref="C41:D41" name="二部主管範圍_31_1_1_1_1_1"/>
+    <protectedRange sqref="C47:D47" name="二部主管範圍_32_1_1_1_1_1"/>
+    <protectedRange sqref="C48:D48" name="二部主管範圍_33_1_1_1_1_1"/>
+    <protectedRange sqref="C34:D34" name="二部主管範圍_34_1_1_1_1_1"/>
+    <protectedRange sqref="C49:D49" name="二部主管範圍_35_1_1_1_1_1"/>
+    <protectedRange sqref="C50:D50" name="二部主管範圍_36_1_1_1_1_1"/>
+    <protectedRange sqref="A16:B17" name="二部計畫範圍_2_1_1"/>
     <protectedRange sqref="A24:B24" name="二部計畫範圍_4_1_1_1"/>
     <protectedRange sqref="C24:D24" name="二部主管範圍_2_1_1"/>
-    <protectedRange sqref="C17:D17" name="二部主管範圍_1_2_1_1"/>
+    <protectedRange sqref="C16:D17" name="二部主管範圍_1_2_1_1"/>
     <protectedRange sqref="A5:B5" name="二部計畫範圍_1"/>
     <protectedRange sqref="C5:D5" name="二部主管範圍_2"/>
-    <protectedRange sqref="C11:D12" name="二部主管範圍_1_1"/>
-    <protectedRange sqref="A11:B12" name="二部計畫範圍_3_1"/>
-    <protectedRange sqref="A42:B42 E42:F42" name="二部計畫範圍_1_1_1_1_1_1"/>
-    <protectedRange sqref="C42:D42" name="二部主管範圍_28_1_1_1_1_1_1"/>
+    <protectedRange sqref="C11:D11" name="二部主管範圍_1_1"/>
+    <protectedRange sqref="A11:B11" name="二部計畫範圍_3_1"/>
+    <protectedRange sqref="A45:B45 E45:F45" name="二部計畫範圍_1_1_1_1_1_1"/>
+    <protectedRange sqref="C45:D45" name="二部主管範圍_28_1_1_1_1_1_1"/>
+    <protectedRange sqref="E37:F37 A37:B37" name="二部計畫範圍_1_1_1_1_1_2"/>
+    <protectedRange sqref="C37:D37" name="二部主管範圍_25_1_1_1_1_1_1"/>
   </protectedRanges>
   <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2262,40 +2436,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
